--- a/refrain-tools/00-api-template/api-direct-billing/api_db_YYYYMMDD-DD_delv.xlsx
+++ b/refrain-tools/00-api-template/api-direct-billing/api_db_YYYYMMDD-DD_delv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Reffly\sql-scripts\refrain-tools\00-api-template\api-direct-billing\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Reffly\sql-scripts\refrain-tools\00-api-template\api-direct-billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>id_api_direct_billing</t>
   </si>
@@ -966,7 +966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -982,7 +984,7 @@
     <col min="10" max="10" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1033,7 +1035,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1104,8 +1106,8 @@
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
+      <c r="M2" s="2">
+        <v>9000</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>23</v>
